--- a/Thesis/ModelForSensitivity/layoutSetup_baseCase3/Inputs/TRs/1800-0.8-20-3.xlsx
+++ b/Thesis/ModelForSensitivity/layoutSetup_baseCase3/Inputs/TRs/1800-0.8-20-3.xlsx
@@ -40,16 +40,16 @@
     <t>requestCost</t>
   </si>
   <si>
+    <t>A,C</t>
+  </si>
+  <si>
+    <t>C,D</t>
+  </si>
+  <si>
     <t>E</t>
   </si>
   <si>
-    <t>C,D</t>
-  </si>
-  <si>
     <t>A,B</t>
-  </si>
-  <si>
-    <t>A,C</t>
   </si>
 </sst>
 </file>
@@ -441,22 +441,22 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B2">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="C2">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E2">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="F2">
-        <v>310</v>
+        <v>131</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -467,51 +467,51 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B3">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E3">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="F3">
-        <v>381</v>
+        <v>168</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="F4">
-        <v>445</v>
+        <v>143</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -519,363 +519,363 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>172</v>
+        <v>94</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>172</v>
+        <v>94</v>
       </c>
       <c r="F5">
-        <v>340</v>
+        <v>243</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="C6">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="E6">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="F6">
-        <v>449</v>
+        <v>250</v>
       </c>
       <c r="G6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>432</v>
+        <v>305</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>432</v>
+        <v>305</v>
       </c>
       <c r="F7">
-        <v>738</v>
+        <v>396</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>459</v>
+        <v>318</v>
       </c>
       <c r="C8">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E8">
-        <v>459</v>
+        <v>318</v>
       </c>
       <c r="F8">
-        <v>686</v>
+        <v>463</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>498</v>
+        <v>459</v>
       </c>
       <c r="C9">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9">
-        <v>498</v>
+        <v>459</v>
       </c>
       <c r="F9">
-        <v>706</v>
+        <v>536</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>509</v>
+        <v>545</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E10">
-        <v>509</v>
+        <v>545</v>
       </c>
       <c r="F10">
-        <v>812</v>
+        <v>646</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <v>512</v>
+        <v>647</v>
       </c>
       <c r="C11">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E11">
-        <v>512</v>
+        <v>647</v>
       </c>
       <c r="F11">
-        <v>699</v>
+        <v>779</v>
       </c>
       <c r="G11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B12">
-        <v>583</v>
+        <v>715</v>
       </c>
       <c r="C12">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="E12">
-        <v>583</v>
+        <v>715</v>
       </c>
       <c r="F12">
-        <v>1592</v>
+        <v>833</v>
       </c>
       <c r="G12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B13">
-        <v>720</v>
+        <v>850</v>
       </c>
       <c r="C13">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>850</v>
+      </c>
+      <c r="F13">
+        <v>972</v>
+      </c>
+      <c r="G13" t="s">
         <v>10</v>
       </c>
-      <c r="E13">
-        <v>720</v>
-      </c>
-      <c r="F13">
-        <v>975</v>
-      </c>
-      <c r="G13" t="s">
-        <v>8</v>
-      </c>
       <c r="H13">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>816</v>
+        <v>1069</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D14">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E14">
-        <v>816</v>
+        <v>1069</v>
       </c>
       <c r="F14">
-        <v>2216</v>
+        <v>2554</v>
       </c>
       <c r="G14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B15">
-        <v>887</v>
+        <v>1089</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E15">
-        <v>887</v>
+        <v>1089</v>
       </c>
       <c r="F15">
-        <v>2117</v>
+        <v>1192</v>
       </c>
       <c r="G15" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B16">
-        <v>969</v>
+        <v>1194</v>
       </c>
       <c r="C16">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="D16">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16">
-        <v>969</v>
+        <v>1194</v>
       </c>
       <c r="F16">
-        <v>1168</v>
+        <v>1310</v>
       </c>
       <c r="G16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B17">
-        <v>982</v>
+        <v>1462</v>
       </c>
       <c r="C17">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D17">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E17">
-        <v>982</v>
+        <v>1462</v>
       </c>
       <c r="F17">
-        <v>1230</v>
+        <v>1584</v>
       </c>
       <c r="G17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B18">
-        <v>1042</v>
+        <v>1528</v>
       </c>
       <c r="C18">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D18">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>1042</v>
+        <v>1528</v>
       </c>
       <c r="F18">
-        <v>1289</v>
+        <v>1632</v>
       </c>
       <c r="G18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -883,51 +883,51 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B19">
-        <v>1238</v>
+        <v>1542</v>
       </c>
       <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>38</v>
+      </c>
+      <c r="E19">
+        <v>1542</v>
+      </c>
+      <c r="F19">
+        <v>1624</v>
+      </c>
+      <c r="G19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19">
         <v>3</v>
-      </c>
-      <c r="D19">
-        <v>35</v>
-      </c>
-      <c r="E19">
-        <v>1238</v>
-      </c>
-      <c r="F19">
-        <v>2466</v>
-      </c>
-      <c r="G19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19">
-        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B20">
-        <v>1656</v>
+        <v>1779</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E20">
-        <v>1656</v>
+        <v>1779</v>
       </c>
       <c r="F20">
-        <v>1923</v>
+        <v>1898</v>
       </c>
       <c r="G20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -935,25 +935,25 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>1789</v>
+      </c>
+      <c r="C21">
+        <v>35</v>
+      </c>
+      <c r="D21">
         <v>18</v>
       </c>
-      <c r="B21">
-        <v>1733</v>
-      </c>
-      <c r="C21">
-        <v>29</v>
-      </c>
-      <c r="D21">
-        <v>39</v>
-      </c>
       <c r="E21">
-        <v>1733</v>
+        <v>1789</v>
       </c>
       <c r="F21">
-        <v>1961</v>
+        <v>1899</v>
       </c>
       <c r="G21" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H21">
         <v>1</v>
